--- a/AI_Engine_Development/Feature_Tutorials/14-implementing-iir-filter/Part2b/lli_thruput.xlsx
+++ b/AI_Engine_Development/Feature_Tutorials/14-implementing-iir-filter/Part2b/lli_thruput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">IIR Throughput (with LLI)</t>
   </si>
@@ -34,10 +34,16 @@
     <t xml:space="preserve">num_samples</t>
   </si>
   <si>
-    <t xml:space="preserve">num_cycles (HLI)</t>
+    <t xml:space="preserve">num_cycles (LLI)</t>
   </si>
   <si>
-    <t xml:space="preserve">LLI Throughput (Msa/sec))</t>
+    <t xml:space="preserve">LLI Throughput (Msa/sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_cycles (API)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Throughput (Msa/sec)</t>
   </si>
 </sst>
 </file>
@@ -48,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -83,6 +89,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,10 +221,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -216,18 +237,501 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>IIR Filter Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"LLI"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LLI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.010752688172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279.475982532751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292.906178489703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.117233294256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303.857566765579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305.762914302777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"API"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>API</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42.7807486631016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.081300813008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.170212765957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.433551198257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.124586549063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.985579589573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142.42993254051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="35460587"/>
+        <c:axId val="91066938"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="35460587"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Burst Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91066938"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91066938"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Throughput (Msa/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35460587"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459360</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1955880" y="2476440"/>
+        <a:ext cx="6967080" cy="5745960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="K33" activeCellId="0" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.51"/>
   </cols>
@@ -309,25 +813,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>464</v>
+        <v>250</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>877</v>
+        <v>458</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1702</v>
+        <v>874</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3354</v>
+        <v>1706</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>6656</v>
+        <v>3370</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>13261</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,31 +840,90 @@
       </c>
       <c r="B9" s="3" t="n">
         <f aca="false">0.000001*B3*1000000000*B6/B7</f>
-        <v>35.7142857142857</v>
+        <v>43.010752688172</v>
       </c>
       <c r="C9" s="3" t="n">
         <f aca="false">0.000001*B3*1000000000*C6/C7</f>
-        <v>137.931034482759</v>
+        <v>256</v>
       </c>
       <c r="D9" s="3" t="n">
         <f aca="false">0.000001*B3*1000000000*D6/D7</f>
-        <v>145.952109464082</v>
+        <v>279.475982532751</v>
       </c>
       <c r="E9" s="3" t="n">
         <f aca="false">0.000001*B3*1000000000*E6/E7</f>
-        <v>150.411280846063</v>
+        <v>292.906178489703</v>
       </c>
       <c r="F9" s="3" t="n">
         <f aca="false">0.000001*B3*1000000000*F6/F7</f>
-        <v>152.653548002385</v>
+        <v>300.117233294256</v>
       </c>
       <c r="G9" s="3" t="n">
         <f aca="false">0.000001*B3*1000000000*G6/G7</f>
-        <v>153.846153846154</v>
+        <v>303.857566765579</v>
       </c>
       <c r="H9" s="3" t="n">
         <f aca="false">0.000001*B3*1000000000*H6/H7</f>
-        <v>154.437825201719</v>
+        <v>305.762914302777</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>492</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>940</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1836</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3628</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>7212</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>14379</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <f aca="false">0.000001*B3*1000000000*B6/B12</f>
+        <v>42.7807486631016</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <f aca="false">0.000001*B3*1000000000*C6/C12</f>
+        <v>130.081300813008</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">0.000001*B3*1000000000*D6/D12</f>
+        <v>136.170212765957</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">0.000001*B3*1000000000*E6/E12</f>
+        <v>139.433551198257</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <f aca="false">0.000001*B3*1000000000*F6/F12</f>
+        <v>141.124586549063</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">0.000001*B3*1000000000*G6/G12</f>
+        <v>141.985579589573</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <f aca="false">0.000001*B3*1000000000*H6/H12</f>
+        <v>142.42993254051</v>
       </c>
     </row>
   </sheetData>
@@ -371,5 +934,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>